--- a/1_php/php环境部署.xlsx
+++ b/1_php/php环境部署.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24645" windowHeight="12615"/>
+    <workbookView windowWidth="22050" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="环境识别" sheetId="1" r:id="rId1"/>
-    <sheet name="web服务器" sheetId="2" r:id="rId2"/>
-    <sheet name="php" sheetId="3" r:id="rId3"/>
+    <sheet name="lnmp" sheetId="2" r:id="rId2"/>
+    <sheet name="lnmp补充" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
   <si>
     <t>查看linux内核版本</t>
   </si>
@@ -28,6 +28,558 @@
   </si>
   <si>
     <t>lsb_release -a</t>
+  </si>
+  <si>
+    <t>lnmp:l-linux;n-nginx;m-mysql;p-php</t>
+  </si>
+  <si>
+    <t>nginx</t>
+  </si>
+  <si>
+    <t>nginx
+方法1</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/pangguoming/p/8261491.html</t>
+  </si>
+  <si>
+    <t>更新系统软件</t>
+  </si>
+  <si>
+    <t>yum update</t>
+  </si>
+  <si>
+    <t>安装nginx源</t>
+  </si>
+  <si>
+    <t>yum localinstall http://nginx.org/packages/centos/7/noarch/RPMS/nginx-release-centos-7-0.el7.ngx.noarch.rpm</t>
+  </si>
+  <si>
+    <t>安装nginx</t>
+  </si>
+  <si>
+    <t>yum install nginx</t>
+  </si>
+  <si>
+    <t>启动nginx</t>
+  </si>
+  <si>
+    <t>systemctl start nginx.service</t>
+  </si>
+  <si>
+    <t>systemctl enable nginx.service</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>访问http://你的ip/</t>
+  </si>
+  <si>
+    <t>如果成功安装会出来nginx默认的欢迎界面</t>
+  </si>
+  <si>
+    <t>mysql</t>
+  </si>
+  <si>
+    <t>mysql
+方法一</t>
+  </si>
+  <si>
+    <t>安装mysql源</t>
+  </si>
+  <si>
+    <t>yum localinstall  http://dev.mysql.com/get/mysql57-community-release-el7-7.noarch.rpm</t>
+  </si>
+  <si>
+    <t>安装mysql</t>
+  </si>
+  <si>
+    <t>yum install mysql-community-server</t>
+  </si>
+  <si>
+    <t>安装mysql的开发包，以后会有用</t>
+  </si>
+  <si>
+    <t>yum install mysql-community-devel</t>
+  </si>
+  <si>
+    <t>启动mysql</t>
+  </si>
+  <si>
+    <t>systemctl start mysqld.service</t>
+  </si>
+  <si>
+    <t>查看mysql启动状态</t>
+  </si>
+  <si>
+    <t>systemctl status mysqld.service</t>
+  </si>
+  <si>
+    <t>获取mysql默认生成的密码</t>
+  </si>
+  <si>
+    <t>grep 'temporary password' /var/log/mysqld.log</t>
+  </si>
+  <si>
+    <t>换成自己的密码</t>
+  </si>
+  <si>
+    <t>mysql -uroot -p</t>
+  </si>
+  <si>
+    <t>Enter password:输入上页的密码，进入mysql</t>
+  </si>
+  <si>
+    <t>更换密码</t>
+  </si>
+  <si>
+    <t>ALTER USER 'root'@'localhost' IDENTIFIED BY 'MyNewPasdfs4!';</t>
+  </si>
+  <si>
+    <t>这个密码一定要足够复杂，不然会不让你改，提示密码不合法;</t>
+  </si>
+  <si>
+    <t>退出mysql并试用下新密码</t>
+  </si>
+  <si>
+    <t>quit</t>
+  </si>
+  <si>
+    <t>php</t>
+  </si>
+  <si>
+    <t>php
+方法一</t>
+  </si>
+  <si>
+    <t>https://yq.aliyun.com/articles/690483</t>
+  </si>
+  <si>
+    <t>设置centos7的php7安装源</t>
+  </si>
+  <si>
+    <t>rpm -Uvh https://dl.fedoraproject.org/pub/epel/epel-release-latest-7.noarch.rpm</t>
+  </si>
+  <si>
+    <t>rpm -Uvh https://mirror.webtatic.com/yum/el7/webtatic-release.rpm</t>
+  </si>
+  <si>
+    <t>安装php7.2和各种扩展</t>
+  </si>
+  <si>
+    <t>yum install php72w php72w-cli php72w-common php72w-devel php72w-embedded php72w-fpm php72w-gd php72w-mbstring php72w-mysqlnd php72w-opcache php72w-pdo php72w-xml</t>
+  </si>
+  <si>
+    <t>启动php</t>
+  </si>
+  <si>
+    <t>systemctl start php-fpm</t>
+  </si>
+  <si>
+    <t>设置开机启动</t>
+  </si>
+  <si>
+    <t>systemctl enable php-fpm</t>
+  </si>
+  <si>
+    <t>修改配置</t>
+  </si>
+  <si>
+    <t>vim /etc/nginx/conf.d/default.conf</t>
+  </si>
+  <si>
+    <t>server段中去掉下面的注释,
+并更改成如下配置</t>
+  </si>
+  <si>
+    <t>location ~ \.php$ {</t>
+  </si>
+  <si>
+    <t>root           /usr/share/nginx/html;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        fastcgi_pass   127.0.0.1:9000;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        fastcgi_index  index.php;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        fastcgi_param SCRIPT_FILENAME $document_root$fastcgi_script_name;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        include        fastcgi_params;</t>
+  </si>
+  <si>
+    <t>重新加载nginx配置</t>
+  </si>
+  <si>
+    <t>systemctl reload nginx</t>
+  </si>
+  <si>
+    <t>redis</t>
+  </si>
+  <si>
+    <t>查看当前版本</t>
+  </si>
+  <si>
+    <t>redis-server -v</t>
+  </si>
+  <si>
+    <t>进入cli指令</t>
+  </si>
+  <si>
+    <t>redis-cli -h 127.0.0.1 -p 6379 -a myPassword</t>
+  </si>
+  <si>
+    <t>redis
+方法一</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/hjw-zq/p/9778514.html</t>
+  </si>
+  <si>
+    <t>安装redis数据库</t>
+  </si>
+  <si>
+    <t>yum install redis</t>
+  </si>
+  <si>
+    <t>下载fedora的epel仓库</t>
+  </si>
+  <si>
+    <t>yum install epel-release</t>
+  </si>
+  <si>
+    <t>启动redis服务</t>
+  </si>
+  <si>
+    <t>systemctl start redis</t>
+  </si>
+  <si>
+    <t>.查看redis状态</t>
+  </si>
+  <si>
+    <t>systemctl status redis</t>
+  </si>
+  <si>
+    <t>设置开机自启动</t>
+  </si>
+  <si>
+    <t>systemctl enable redis</t>
+  </si>
+  <si>
+    <t>开放端口号</t>
+  </si>
+  <si>
+    <t>firewall-cmd --zone=public --add-port=80/tcp --permanent</t>
+  </si>
+  <si>
+    <t>firewall-cmd --zone=public --add-port=6379/tcp --permanent</t>
+  </si>
+  <si>
+    <t>systemctl restart firewalld</t>
+  </si>
+  <si>
+    <t>查看端口</t>
+  </si>
+  <si>
+    <t>netstat -lnp|grep 6379</t>
+  </si>
+  <si>
+    <t>设置redis 远程连接和密码</t>
+  </si>
+  <si>
+    <t>vi /etc/redis.conf</t>
+  </si>
+  <si>
+    <t>将这部【bing 127.0.0.1】注释掉，否则只有本机才能访问</t>
+  </si>
+  <si>
+    <t>保护模式修改为no 【protected-mode no】</t>
+  </si>
+  <si>
+    <t>如果修改端口号，修改这里就可以了，本文默认6379端口【port 6379】</t>
+  </si>
+  <si>
+    <t>修改密码为 123456【requirepass 123456】</t>
+  </si>
+  <si>
+    <t>重启redis</t>
+  </si>
+  <si>
+    <t>systemctl restart redis</t>
+  </si>
+  <si>
+    <t>允许url访问目录</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/freeweb/p/6517802.html</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> location /</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>test2 {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        root html;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        autoindex on;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        autoindex_exact_size off;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        autoindex_localtime on;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <r>
+      <t>Host</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本地ID'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>allowed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>connect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MySQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>server</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/youqc/p/10476605.html</t>
+  </si>
+  <si>
+    <r>
+      <t>　1、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF494949"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连接服务器: mysql -u root -p</t>
+    </r>
+  </si>
+  <si>
+    <t>　　2、看当前所有数据库：show databases;</t>
+  </si>
+  <si>
+    <t>　　3、进入mysql数据库：use mysql;</t>
+  </si>
+  <si>
+    <t>　　4、查看mysql数据库中所有的表：show tables;</t>
+  </si>
+  <si>
+    <t>　　5、查看user表中的数据：select Host, User,Password from user;</t>
+  </si>
+  <si>
+    <t>　　6、修改user表中的Host:update user set Host='%' where User='root';</t>
+  </si>
+  <si>
+    <t>　　7、最后刷新一下：flush privileges;</t>
+  </si>
+  <si>
+    <t>#一定要记得在写sql的时候要在语句完成后加上" ; "下面是图示说明</t>
+  </si>
+  <si>
+    <t>给php安装redis扩展</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/qichao123/p/10237852.html</t>
   </si>
 </sst>
 </file>
@@ -35,12 +587,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,6 +601,102 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF494949"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF494949"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -56,8 +704,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -71,6 +742,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -78,15 +757,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,16 +781,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,83 +806,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,192 +840,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -403,11 +1040,133 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -415,23 +1174,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,24 +1197,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,11 +1238,42 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,154 +1282,334 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1007,18 +1964,18 @@
   <sheetPr/>
   <dimension ref="B10:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="50" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50" style="61" customWidth="1"/>
     <col min="3" max="3" width="34.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="10" spans="2:3">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="61" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
@@ -1026,7 +1983,7 @@
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="61" t="s">
         <v>2</v>
       </c>
       <c r="C11" t="s">
@@ -1034,7 +1991,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
@@ -1043,15 +2000,656 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="29.75" style="7" customWidth="1"/>
+    <col min="3" max="3" width="2.875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="177.125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9" style="6"/>
+    <col min="7" max="7" width="9.375" style="6" customWidth="1"/>
+    <col min="8" max="9" width="10.625" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:4">
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" ht="21" spans="2:8">
+      <c r="B5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:8">
+      <c r="A6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:8">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="H7" s="21"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:8">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:8">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:8">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:8">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:8">
+      <c r="A12" s="17"/>
+      <c r="B12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:8">
+      <c r="A13" s="17"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" ht="16.5" spans="2:8">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15" ht="16.5" spans="2:8">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="H15" s="25"/>
+    </row>
+    <row r="16" ht="21" spans="2:8">
+      <c r="B16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="16"/>
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:8">
+      <c r="A17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:8">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" ht="16.5" spans="1:8">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" ht="16.5" spans="1:8">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" ht="16.5" spans="1:4">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="1:4">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" spans="1:4">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5" spans="1:4">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" spans="1:4">
+      <c r="A25" s="17"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="1:4">
+      <c r="A26" s="17"/>
+      <c r="B26" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" spans="1:4">
+      <c r="A27" s="17"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" spans="1:4">
+      <c r="A28" s="17"/>
+      <c r="B28" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" ht="21" spans="2:4">
+      <c r="B31" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+    </row>
+    <row r="32" ht="21" spans="1:4">
+      <c r="A32" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" ht="16.5" spans="1:4">
+      <c r="A33" s="17"/>
+      <c r="B33" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="31"/>
+      <c r="D33" s="32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5" spans="1:4">
+      <c r="A34" s="17"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" ht="16.5" spans="1:4">
+      <c r="A35" s="17"/>
+      <c r="B35" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="36"/>
+      <c r="D35" s="32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" ht="16.5" spans="1:4">
+      <c r="A36" s="17"/>
+      <c r="B36" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="36"/>
+      <c r="D36" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" ht="16.5" spans="1:4">
+      <c r="A37" s="17"/>
+      <c r="B37" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="36"/>
+      <c r="D37" s="32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" ht="16.5" spans="1:4">
+      <c r="A38" s="17"/>
+      <c r="B38" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="36"/>
+      <c r="D38" s="32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" ht="16.5" spans="1:4">
+      <c r="A39" s="17"/>
+      <c r="B39" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="38"/>
+      <c r="D39" s="32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" ht="16.5" spans="1:4">
+      <c r="A40" s="17"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" ht="16.5" spans="1:4">
+      <c r="A41" s="17"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" ht="16.5" spans="1:4">
+      <c r="A42" s="17"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" ht="16.5" spans="1:4">
+      <c r="A43" s="17"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" ht="16.5" spans="1:4">
+      <c r="A44" s="17"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" ht="16.5" spans="1:4">
+      <c r="A45" s="17"/>
+      <c r="B45" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="36"/>
+      <c r="D45" s="32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" ht="21" spans="2:2">
+      <c r="B49" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" ht="21" spans="1:4">
+      <c r="A50" s="6"/>
+      <c r="B50" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" ht="21" spans="1:4">
+      <c r="A51" s="6"/>
+      <c r="B51" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" s="5" customFormat="1" ht="16.5" spans="1:4">
+      <c r="A52" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" ht="16.5" spans="1:4">
+      <c r="A53" s="44"/>
+      <c r="B53" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="46"/>
+      <c r="D53" s="47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" ht="16.5" spans="1:4">
+      <c r="A54" s="44"/>
+      <c r="B54" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" ht="16.5" spans="1:4">
+      <c r="A55" s="44"/>
+      <c r="B55" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" ht="16.5" spans="1:4">
+      <c r="A56" s="44"/>
+      <c r="B56" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" ht="16.5" spans="1:4">
+      <c r="A57" s="44"/>
+      <c r="B57" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" ht="16.5" spans="1:4">
+      <c r="A58" s="44"/>
+      <c r="B58" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" s="51"/>
+      <c r="D58" s="52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" ht="16.5" spans="1:4">
+      <c r="A59" s="44"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" ht="16.5" spans="1:4">
+      <c r="A60" s="44"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" ht="16.5" spans="1:4">
+      <c r="A61" s="44"/>
+      <c r="B61" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="14"/>
+      <c r="D61" s="49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" ht="16.5" spans="1:4">
+      <c r="A62" s="44"/>
+      <c r="B62" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="56"/>
+      <c r="D62" s="49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" ht="16.5" spans="1:4">
+      <c r="A63" s="44"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="49" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" ht="16.5" spans="1:4">
+      <c r="A64" s="44"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" ht="16.5" spans="1:4">
+      <c r="A65" s="44"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" ht="16.5" spans="1:4">
+      <c r="A66" s="44"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" ht="16.5" spans="1:4">
+      <c r="A67" s="59"/>
+      <c r="B67" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" s="14"/>
+      <c r="D67" s="29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="5"/>
+      <c r="B68" s="60"/>
+      <c r="C68" s="60"/>
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="5"/>
+      <c r="B69" s="60"/>
+      <c r="C69" s="60"/>
+      <c r="D69" s="5"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="5"/>
+      <c r="B70" s="60"/>
+      <c r="C70" s="60"/>
+      <c r="D70" s="5"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="5"/>
+      <c r="B71" s="60"/>
+      <c r="C71" s="60"/>
+      <c r="D71" s="5"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="5"/>
+      <c r="B72" s="60"/>
+      <c r="C72" s="60"/>
+      <c r="D72" s="5"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="5"/>
+      <c r="B73" s="60"/>
+      <c r="C73" s="60"/>
+      <c r="D73" s="5"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="5"/>
+      <c r="B74" s="60"/>
+      <c r="C74" s="60"/>
+      <c r="D74" s="5"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="5"/>
+      <c r="B75" s="60"/>
+      <c r="C75" s="60"/>
+      <c r="D75" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="A17:A28"/>
+    <mergeCell ref="A32:A45"/>
+    <mergeCell ref="A52:A67"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B62:B66"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1" display="https://www.cnblogs.com/pangguoming/p/8261491.html" tooltip="https://www.cnblogs.com/pangguoming/p/8261491.html"/>
+    <hyperlink ref="D17" r:id="rId1" display="https://www.cnblogs.com/pangguoming/p/8261491.html" tooltip="https://www.cnblogs.com/pangguoming/p/8261491.html"/>
+    <hyperlink ref="D32" r:id="rId2" display="https://yq.aliyun.com/articles/690483" tooltip="https://yq.aliyun.com/articles/690483"/>
+    <hyperlink ref="D52" r:id="rId3" display="https://www.cnblogs.com/hjw-zq/p/9778514.html" tooltip="https://www.cnblogs.com/hjw-zq/p/9778514.html"/>
+  </hyperlinks>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
@@ -1060,15 +2658,128 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B2:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="3" max="3" width="27.875" customWidth="1"/>
+    <col min="4" max="4" width="169" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4">
+      <c r="D3" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4">
+      <c r="D4" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4">
+      <c r="D5" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="https://www.cnblogs.com/freeweb/p/6517802.html" tooltip="https://www.cnblogs.com/freeweb/p/6517802.html"/>
+    <hyperlink ref="D17" r:id="rId2" display="https://www.cnblogs.com/youqc/p/10476605.html" tooltip="https://www.cnblogs.com/youqc/p/10476605.html"/>
+    <hyperlink ref="D31" r:id="rId3" display="https://www.cnblogs.com/qichao123/p/10237852.html" tooltip="https://www.cnblogs.com/qichao123/p/10237852.html"/>
+  </hyperlinks>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
